--- a/interface_automation/class_0629_log/demo.xlsx
+++ b/interface_automation/class_0629_log/demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11920" windowWidth="28800"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11920" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="add" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,8 +48,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,8 +73,47 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,21 +127,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
@@ -109,24 +134,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -134,16 +143,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,25 +158,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,19 +192,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,31 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,97 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,37 +393,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,13 +422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,9 +454,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,142 +482,142 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="11" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="9" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
@@ -951,7 +951,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
@@ -1533,7 +1533,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
